--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\Kaman\Input_files\Master_executors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KamanCore\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689504C7-19F1-41CB-BED6-F4C7F7590371}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5403696-3F77-4F11-B270-3813B434C23A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="84">
   <si>
     <t>Runmode</t>
   </si>
@@ -290,6 +290,9 @@
   </si>
   <si>
     <t>TC38_demoTestcase</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -777,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -824,7 +827,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -844,7 +847,7 @@
         <v>37</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -864,7 +867,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
@@ -884,7 +887,7 @@
         <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>11</v>
@@ -904,7 +907,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>11</v>
@@ -924,7 +927,7 @@
         <v>68</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>11</v>
@@ -944,7 +947,7 @@
         <v>35</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>11</v>
@@ -964,7 +967,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>11</v>
@@ -984,7 +987,7 @@
         <v>29</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>11</v>
@@ -1004,7 +1007,7 @@
         <v>39</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>11</v>
@@ -1024,7 +1027,7 @@
         <v>41</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>11</v>
@@ -1044,7 +1047,7 @@
         <v>43</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>11</v>
@@ -1064,7 +1067,7 @@
         <v>45</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>11</v>
@@ -1084,7 +1087,7 @@
         <v>47</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>11</v>
@@ -1104,7 +1107,7 @@
         <v>49</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>11</v>
@@ -1124,7 +1127,7 @@
         <v>50</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>11</v>
@@ -1144,7 +1147,7 @@
         <v>50</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>11</v>
@@ -1164,7 +1167,7 @@
         <v>53</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>11</v>
@@ -1184,7 +1187,7 @@
         <v>58</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>11</v>
@@ -1204,7 +1207,7 @@
         <v>64</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>11</v>
@@ -1224,7 +1227,7 @@
         <v>66</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>11</v>
@@ -1244,7 +1247,7 @@
         <v>33</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>11</v>
@@ -1264,7 +1267,7 @@
         <v>60</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>11</v>
@@ -1284,7 +1287,7 @@
         <v>66</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>11</v>
@@ -1304,7 +1307,7 @@
         <v>27</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>11</v>
@@ -1324,7 +1327,7 @@
         <v>55</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>11</v>
@@ -1344,7 +1347,7 @@
         <v>24</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>11</v>
@@ -1384,7 +1387,7 @@
         <v>22</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>11</v>
@@ -1404,7 +1407,7 @@
         <v>62</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>11</v>
@@ -1424,7 +1427,7 @@
         <v>21</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>11</v>
@@ -1444,7 +1447,7 @@
         <v>19</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>11</v>
@@ -1464,7 +1467,7 @@
         <v>73</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>11</v>
@@ -1484,7 +1487,7 @@
         <v>78</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>11</v>
@@ -1504,7 +1507,7 @@
         <v>79</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>11</v>
@@ -1524,7 +1527,7 @@
         <v>80</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>11</v>
@@ -1544,7 +1547,7 @@
         <v>81</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>11</v>
@@ -1564,7 +1567,7 @@
         <v>82</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>11</v>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KamanCore\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5403696-3F77-4F11-B270-3813B434C23A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B45ABE2-2B57-408E-8656-7DA4F160A002}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -292,7 +292,7 @@
     <t>TC38_demoTestcase</t>
   </si>
   <si>
-    <t>No</t>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -780,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -827,7 +827,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -1367,7 +1367,7 @@
         <v>70</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>11</v>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KamanCore\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B45ABE2-2B57-408E-8656-7DA4F160A002}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6152CAAB-D1E0-41D1-949B-12A400F2D8F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -780,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1367,7 +1367,7 @@
         <v>70</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>11</v>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KamanCore\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6152CAAB-D1E0-41D1-949B-12A400F2D8F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02A3E2F-4295-4284-BBB2-8761CA0F7236}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="83">
   <si>
     <t>Runmode</t>
   </si>
@@ -290,9 +290,6 @@
   </si>
   <si>
     <t>TC38_demoTestcase</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -780,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -847,7 +844,7 @@
         <v>37</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -867,7 +864,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
@@ -887,7 +884,7 @@
         <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>11</v>
@@ -907,7 +904,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>11</v>
@@ -927,7 +924,7 @@
         <v>68</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>11</v>
@@ -947,7 +944,7 @@
         <v>35</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>11</v>
@@ -967,7 +964,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>11</v>
@@ -987,7 +984,7 @@
         <v>29</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>11</v>
@@ -1007,7 +1004,7 @@
         <v>39</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>11</v>
@@ -1027,7 +1024,7 @@
         <v>41</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>11</v>
@@ -1047,7 +1044,7 @@
         <v>43</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>11</v>
@@ -1067,7 +1064,7 @@
         <v>45</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>11</v>
@@ -1087,7 +1084,7 @@
         <v>47</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>11</v>
@@ -1107,7 +1104,7 @@
         <v>49</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>11</v>
@@ -1127,7 +1124,7 @@
         <v>50</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>11</v>
@@ -1147,7 +1144,7 @@
         <v>50</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>11</v>
@@ -1167,7 +1164,7 @@
         <v>53</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>11</v>
@@ -1187,7 +1184,7 @@
         <v>58</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>11</v>
@@ -1207,7 +1204,7 @@
         <v>64</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>11</v>
@@ -1227,7 +1224,7 @@
         <v>66</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>11</v>
@@ -1247,7 +1244,7 @@
         <v>33</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>11</v>
@@ -1267,7 +1264,7 @@
         <v>60</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>11</v>
@@ -1287,7 +1284,7 @@
         <v>66</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>11</v>
@@ -1307,7 +1304,7 @@
         <v>27</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>11</v>
@@ -1327,7 +1324,7 @@
         <v>55</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>11</v>
@@ -1347,7 +1344,7 @@
         <v>24</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>11</v>
@@ -1387,7 +1384,7 @@
         <v>22</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>11</v>
@@ -1407,7 +1404,7 @@
         <v>62</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>11</v>
@@ -1427,7 +1424,7 @@
         <v>21</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>11</v>
@@ -1447,7 +1444,7 @@
         <v>19</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>11</v>
@@ -1467,7 +1464,7 @@
         <v>73</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>11</v>
@@ -1487,7 +1484,7 @@
         <v>78</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>11</v>
@@ -1507,7 +1504,7 @@
         <v>79</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>11</v>
@@ -1527,7 +1524,7 @@
         <v>80</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>11</v>
@@ -1547,7 +1544,7 @@
         <v>81</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>11</v>
@@ -1567,7 +1564,7 @@
         <v>82</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>11</v>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KamanCore\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02A3E2F-4295-4284-BBB2-8761CA0F7236}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B58444B-E30E-47D8-A503-89BB3A5EC041}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="MasterExecutor" sheetId="10" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MasterExecutor!$A$1:$F$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MasterExecutor!$A$1:$F$33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="73">
   <si>
     <t>Runmode</t>
   </si>
@@ -259,37 +259,7 @@
     <t>TC24_Verify_PlaceOrder_LoggedIn</t>
   </si>
   <si>
-    <t>TC33_Verify_login_Responsive</t>
-  </si>
-  <si>
-    <t>Responsive Testing</t>
-  </si>
-  <si>
-    <t>TC34_Verify_Broken_Image_Home_Page</t>
-  </si>
-  <si>
-    <t>TC35_Verify_Broken_Image_PDP_Page</t>
-  </si>
-  <si>
-    <t>TC36_Verify_Broken_Image_Search_Page</t>
-  </si>
-  <si>
-    <t>TC37_Verify_Broken_Image_PLP_Page</t>
-  </si>
-  <si>
-    <t>Broken Image testing on Home page</t>
-  </si>
-  <si>
-    <t>Broken Image testing on PDP page</t>
-  </si>
-  <si>
-    <t>Broken Image testing on Search page</t>
-  </si>
-  <si>
-    <t>Broken Image testing on PLP page</t>
-  </si>
-  <si>
-    <t>TC38_demoTestcase</t>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -775,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -824,7 +794,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -844,7 +814,7 @@
         <v>37</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -864,7 +834,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
@@ -884,7 +854,7 @@
         <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>11</v>
@@ -904,7 +874,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>11</v>
@@ -924,7 +894,7 @@
         <v>68</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>11</v>
@@ -944,7 +914,7 @@
         <v>35</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>11</v>
@@ -964,7 +934,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>11</v>
@@ -984,7 +954,7 @@
         <v>29</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>11</v>
@@ -1004,7 +974,7 @@
         <v>39</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>11</v>
@@ -1024,7 +994,7 @@
         <v>41</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>11</v>
@@ -1044,7 +1014,7 @@
         <v>43</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>11</v>
@@ -1064,7 +1034,7 @@
         <v>45</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>11</v>
@@ -1084,7 +1054,7 @@
         <v>47</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>11</v>
@@ -1104,7 +1074,7 @@
         <v>49</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>11</v>
@@ -1124,7 +1094,7 @@
         <v>50</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>11</v>
@@ -1144,7 +1114,7 @@
         <v>50</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>11</v>
@@ -1164,7 +1134,7 @@
         <v>53</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>11</v>
@@ -1184,7 +1154,7 @@
         <v>58</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>11</v>
@@ -1204,7 +1174,7 @@
         <v>64</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>11</v>
@@ -1224,7 +1194,7 @@
         <v>66</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>11</v>
@@ -1284,7 +1254,7 @@
         <v>66</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>11</v>
@@ -1344,7 +1314,7 @@
         <v>24</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>11</v>
@@ -1364,7 +1334,7 @@
         <v>70</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>11</v>
@@ -1384,7 +1354,7 @@
         <v>22</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>11</v>
@@ -1404,7 +1374,7 @@
         <v>62</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>11</v>
@@ -1424,7 +1394,7 @@
         <v>21</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>11</v>
@@ -1444,129 +1414,9 @@
         <v>19</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="1" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KamanCore\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B58444B-E30E-47D8-A503-89BB3A5EC041}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF52EB51-F325-4981-A066-2D5E78E2ECFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="72">
   <si>
     <t>Runmode</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>View store home</t>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
   <si>
     <t>High</t>
@@ -747,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:E27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -794,10 +791,10 @@
         <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -808,16 +805,16 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="E3" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="45">
@@ -828,16 +825,16 @@
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>17</v>
-      </c>
       <c r="E4" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -848,16 +845,16 @@
         <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -868,16 +865,16 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="45">
@@ -888,16 +885,16 @@
         <v>7</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>68</v>
-      </c>
       <c r="E7" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -908,16 +905,16 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>35</v>
-      </c>
       <c r="E8" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -928,16 +925,16 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="E9" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -948,16 +945,16 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>29</v>
-      </c>
       <c r="E10" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -968,16 +965,16 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>39</v>
-      </c>
       <c r="E11" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -988,16 +985,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>41</v>
-      </c>
       <c r="E12" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30">
@@ -1008,16 +1005,16 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>43</v>
-      </c>
       <c r="E13" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30">
@@ -1028,16 +1025,16 @@
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>45</v>
-      </c>
       <c r="E14" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1048,16 +1045,16 @@
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>47</v>
-      </c>
       <c r="E15" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30">
@@ -1068,16 +1065,16 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="E16" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1088,16 +1085,16 @@
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1108,16 +1105,16 @@
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1128,16 +1125,16 @@
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="E19" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1148,16 +1145,16 @@
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="E20" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="45">
@@ -1168,16 +1165,16 @@
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>64</v>
-      </c>
       <c r="E21" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1188,16 +1185,16 @@
         <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>66</v>
-      </c>
       <c r="E22" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1208,16 +1205,16 @@
         <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="E23" s="5" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1228,16 +1225,16 @@
         <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>60</v>
-      </c>
       <c r="E24" s="5" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1248,16 +1245,16 @@
         <v>7</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1268,16 +1265,16 @@
         <v>7</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="11" t="s">
-        <v>27</v>
-      </c>
       <c r="E26" s="5" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1288,16 +1285,16 @@
         <v>7</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="14" t="s">
-        <v>55</v>
-      </c>
       <c r="E27" s="5" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1308,16 +1305,16 @@
         <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1328,16 +1325,16 @@
         <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="E29" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1348,16 +1345,16 @@
         <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1368,16 +1365,16 @@
         <v>7</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="13" t="s">
-        <v>62</v>
-      </c>
       <c r="E31" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1388,16 +1385,16 @@
         <v>7</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="11" t="s">
-        <v>21</v>
-      </c>
       <c r="E32" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="45">
@@ -1408,16 +1405,16 @@
         <v>7</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="11" t="s">
-        <v>19</v>
-      </c>
       <c r="E33" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KamanCore\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF52EB51-F325-4981-A066-2D5E78E2ECFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0685E709-2D66-4B60-BDD7-7FBD8A322BD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,6 +63,9 @@
     <t>View store home</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>High</t>
   </si>
   <si>
@@ -254,9 +257,6 @@
   </si>
   <si>
     <t>TC24_Verify_PlaceOrder_LoggedIn</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
@@ -745,7 +745,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E2" sqref="E2:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -791,10 +791,10 @@
         <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -805,16 +805,16 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="45">
@@ -825,16 +825,16 @@
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -845,16 +845,16 @@
         <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -865,16 +865,16 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="45">
@@ -885,16 +885,16 @@
         <v>7</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -905,16 +905,16 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -925,16 +925,16 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -945,16 +945,16 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -965,16 +965,16 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -985,16 +985,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30">
@@ -1005,16 +1005,16 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30">
@@ -1025,16 +1025,16 @@
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1045,16 +1045,16 @@
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30">
@@ -1065,16 +1065,16 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1085,16 +1085,16 @@
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1105,16 +1105,16 @@
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>49</v>
-      </c>
       <c r="E18" s="5" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1125,16 +1125,16 @@
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1145,16 +1145,16 @@
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="45">
@@ -1165,16 +1165,16 @@
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1185,16 +1185,16 @@
         <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1205,16 +1205,16 @@
         <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1225,16 +1225,16 @@
         <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1245,16 +1245,16 @@
         <v>7</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1265,16 +1265,16 @@
         <v>7</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1285,16 +1285,16 @@
         <v>7</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1305,16 +1305,16 @@
         <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>23</v>
-      </c>
       <c r="E28" s="5" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1325,16 +1325,16 @@
         <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1345,16 +1345,16 @@
         <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="11" t="s">
-        <v>21</v>
-      </c>
       <c r="E30" s="5" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1365,16 +1365,16 @@
         <v>7</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1385,16 +1385,16 @@
         <v>7</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="45">
@@ -1405,16 +1405,16 @@
         <v>7</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KamanCore\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0685E709-2D66-4B60-BDD7-7FBD8A322BD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BE280F-0217-4412-9214-CA1090E6B591}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="73">
   <si>
     <t>Runmode</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t>TC24_Verify_PlaceOrder_LoggedIn</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -744,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -791,7 +794,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -811,7 +814,7 @@
         <v>37</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -831,7 +834,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
@@ -851,7 +854,7 @@
         <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>11</v>
@@ -871,7 +874,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>11</v>
@@ -891,7 +894,7 @@
         <v>68</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>11</v>
@@ -911,7 +914,7 @@
         <v>35</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>11</v>
@@ -931,7 +934,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>11</v>
@@ -951,7 +954,7 @@
         <v>29</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>11</v>
@@ -971,7 +974,7 @@
         <v>39</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>11</v>
@@ -991,7 +994,7 @@
         <v>41</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>11</v>
@@ -1011,7 +1014,7 @@
         <v>43</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>11</v>
@@ -1031,7 +1034,7 @@
         <v>45</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>11</v>
@@ -1051,7 +1054,7 @@
         <v>47</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>11</v>
@@ -1071,7 +1074,7 @@
         <v>49</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>11</v>
@@ -1091,7 +1094,7 @@
         <v>50</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>11</v>
@@ -1111,7 +1114,7 @@
         <v>50</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>11</v>
@@ -1131,7 +1134,7 @@
         <v>53</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>11</v>
@@ -1151,7 +1154,7 @@
         <v>58</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>11</v>
@@ -1171,7 +1174,7 @@
         <v>64</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>11</v>
@@ -1191,7 +1194,7 @@
         <v>66</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>11</v>
@@ -1211,7 +1214,7 @@
         <v>33</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>11</v>
@@ -1231,7 +1234,7 @@
         <v>60</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>11</v>
@@ -1251,7 +1254,7 @@
         <v>66</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>11</v>
@@ -1311,7 +1314,7 @@
         <v>24</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>11</v>
@@ -1331,7 +1334,7 @@
         <v>70</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>11</v>
@@ -1351,7 +1354,7 @@
         <v>22</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>11</v>
@@ -1371,7 +1374,7 @@
         <v>62</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>11</v>
@@ -1391,7 +1394,7 @@
         <v>21</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>11</v>
@@ -1411,7 +1414,7 @@
         <v>19</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>11</v>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KamanCore\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BE280F-0217-4412-9214-CA1090E6B591}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B851550-DE0B-49B0-BDFA-9C8C8F3709D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="72">
   <si>
     <t>Runmode</t>
   </si>
@@ -257,9 +257,6 @@
   </si>
   <si>
     <t>TC24_Verify_PlaceOrder_LoggedIn</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
@@ -747,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -794,7 +791,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -814,7 +811,7 @@
         <v>37</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -834,7 +831,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
@@ -854,7 +851,7 @@
         <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>11</v>
@@ -874,7 +871,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>11</v>
@@ -894,7 +891,7 @@
         <v>68</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>11</v>
@@ -914,7 +911,7 @@
         <v>35</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>11</v>
@@ -934,7 +931,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>11</v>
@@ -954,7 +951,7 @@
         <v>29</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>11</v>
@@ -974,7 +971,7 @@
         <v>39</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>11</v>
@@ -994,7 +991,7 @@
         <v>41</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>11</v>
@@ -1014,7 +1011,7 @@
         <v>43</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>11</v>
@@ -1034,7 +1031,7 @@
         <v>45</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>11</v>
@@ -1054,7 +1051,7 @@
         <v>47</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>11</v>
@@ -1074,7 +1071,7 @@
         <v>49</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>11</v>
@@ -1094,7 +1091,7 @@
         <v>50</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>11</v>
@@ -1114,7 +1111,7 @@
         <v>50</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>11</v>
@@ -1134,7 +1131,7 @@
         <v>53</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>11</v>
@@ -1154,7 +1151,7 @@
         <v>58</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>11</v>
@@ -1174,7 +1171,7 @@
         <v>64</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>11</v>
@@ -1194,7 +1191,7 @@
         <v>66</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>11</v>
@@ -1214,7 +1211,7 @@
         <v>33</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>11</v>
@@ -1234,7 +1231,7 @@
         <v>60</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>11</v>
@@ -1254,7 +1251,7 @@
         <v>66</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>11</v>
@@ -1314,7 +1311,7 @@
         <v>24</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>11</v>
@@ -1334,7 +1331,7 @@
         <v>70</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>11</v>
@@ -1354,7 +1351,7 @@
         <v>22</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>11</v>
@@ -1374,7 +1371,7 @@
         <v>62</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>11</v>
@@ -1394,7 +1391,7 @@
         <v>21</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>11</v>
@@ -1414,7 +1411,7 @@
         <v>19</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>11</v>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KamanCore\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B851550-DE0B-49B0-BDFA-9C8C8F3709D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B5DEC9-5BD0-4EDC-8E62-2B0DF27F2513}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="73">
   <si>
     <t>Runmode</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t>TC24_Verify_PlaceOrder_LoggedIn</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -744,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -831,7 +834,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
@@ -851,7 +854,7 @@
         <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>11</v>
@@ -871,7 +874,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>11</v>
@@ -891,7 +894,7 @@
         <v>68</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>11</v>
@@ -911,7 +914,7 @@
         <v>35</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>11</v>
@@ -931,7 +934,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>11</v>
@@ -951,7 +954,7 @@
         <v>29</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>11</v>
@@ -971,7 +974,7 @@
         <v>39</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>11</v>
@@ -991,7 +994,7 @@
         <v>41</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>11</v>
@@ -1011,7 +1014,7 @@
         <v>43</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>11</v>
@@ -1031,7 +1034,7 @@
         <v>45</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>11</v>
@@ -1051,7 +1054,7 @@
         <v>47</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>11</v>
@@ -1071,7 +1074,7 @@
         <v>49</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>11</v>
@@ -1091,7 +1094,7 @@
         <v>50</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>11</v>
@@ -1111,7 +1114,7 @@
         <v>50</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>11</v>
@@ -1131,7 +1134,7 @@
         <v>53</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>11</v>
@@ -1151,7 +1154,7 @@
         <v>58</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>11</v>
@@ -1171,7 +1174,7 @@
         <v>64</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>11</v>
@@ -1191,7 +1194,7 @@
         <v>66</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>11</v>
@@ -1211,7 +1214,7 @@
         <v>33</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>11</v>
@@ -1231,7 +1234,7 @@
         <v>60</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>11</v>
@@ -1251,7 +1254,7 @@
         <v>66</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>11</v>
@@ -1271,7 +1274,7 @@
         <v>27</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>11</v>
@@ -1291,7 +1294,7 @@
         <v>55</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>11</v>
@@ -1311,7 +1314,7 @@
         <v>24</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>11</v>
@@ -1331,7 +1334,7 @@
         <v>70</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>11</v>
@@ -1351,7 +1354,7 @@
         <v>22</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>11</v>
@@ -1371,7 +1374,7 @@
         <v>62</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>11</v>
@@ -1391,7 +1394,7 @@
         <v>21</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>11</v>
@@ -1411,7 +1414,7 @@
         <v>19</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>11</v>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KamanCore\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B5DEC9-5BD0-4EDC-8E62-2B0DF27F2513}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101EF4F2-356D-44BF-AD0D-072367BC08E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -747,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -834,7 +834,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
@@ -854,7 +854,7 @@
         <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>11</v>
@@ -874,7 +874,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>11</v>
@@ -894,7 +894,7 @@
         <v>68</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>11</v>
@@ -914,7 +914,7 @@
         <v>35</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>11</v>
@@ -934,7 +934,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>11</v>
@@ -954,7 +954,7 @@
         <v>29</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>11</v>
@@ -974,7 +974,7 @@
         <v>39</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>11</v>
@@ -994,7 +994,7 @@
         <v>41</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>11</v>
@@ -1014,7 +1014,7 @@
         <v>43</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>11</v>
@@ -1034,7 +1034,7 @@
         <v>45</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>11</v>
@@ -1054,7 +1054,7 @@
         <v>47</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>11</v>
@@ -1074,7 +1074,7 @@
         <v>49</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>11</v>
@@ -1094,7 +1094,7 @@
         <v>50</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>11</v>
@@ -1114,7 +1114,7 @@
         <v>50</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>11</v>
@@ -1134,7 +1134,7 @@
         <v>53</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>11</v>
@@ -1154,7 +1154,7 @@
         <v>58</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>11</v>
@@ -1174,7 +1174,7 @@
         <v>64</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>11</v>
@@ -1194,7 +1194,7 @@
         <v>66</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>11</v>
@@ -1214,7 +1214,7 @@
         <v>33</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>11</v>
@@ -1234,7 +1234,7 @@
         <v>60</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>11</v>
@@ -1254,7 +1254,7 @@
         <v>66</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>11</v>
@@ -1314,7 +1314,7 @@
         <v>24</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>11</v>
@@ -1334,7 +1334,7 @@
         <v>70</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>11</v>
@@ -1354,7 +1354,7 @@
         <v>22</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>11</v>
@@ -1374,7 +1374,7 @@
         <v>62</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>11</v>
@@ -1394,7 +1394,7 @@
         <v>21</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>11</v>
@@ -1414,7 +1414,7 @@
         <v>19</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>11</v>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KamanCore\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101EF4F2-356D-44BF-AD0D-072367BC08E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4B8FC8-6F32-4720-B692-141B5D76298F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -747,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -814,7 +814,7 @@
         <v>37</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -834,7 +834,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
@@ -854,7 +854,7 @@
         <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>11</v>
@@ -874,7 +874,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>11</v>
@@ -894,7 +894,7 @@
         <v>68</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>11</v>
@@ -914,7 +914,7 @@
         <v>35</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>11</v>
@@ -934,7 +934,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>11</v>
@@ -954,7 +954,7 @@
         <v>29</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>11</v>
@@ -974,7 +974,7 @@
         <v>39</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>11</v>
@@ -994,7 +994,7 @@
         <v>41</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>11</v>
@@ -1014,7 +1014,7 @@
         <v>43</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>11</v>
@@ -1034,7 +1034,7 @@
         <v>45</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>11</v>
@@ -1054,7 +1054,7 @@
         <v>47</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>11</v>
@@ -1074,7 +1074,7 @@
         <v>49</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>11</v>
@@ -1094,7 +1094,7 @@
         <v>50</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>11</v>
@@ -1114,7 +1114,7 @@
         <v>50</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>11</v>
@@ -1134,7 +1134,7 @@
         <v>53</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>11</v>
@@ -1154,7 +1154,7 @@
         <v>58</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>11</v>
@@ -1174,7 +1174,7 @@
         <v>64</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>11</v>
@@ -1194,7 +1194,7 @@
         <v>66</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>11</v>
@@ -1214,7 +1214,7 @@
         <v>33</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>11</v>
@@ -1234,7 +1234,7 @@
         <v>60</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>11</v>
@@ -1254,7 +1254,7 @@
         <v>66</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>11</v>
@@ -1314,7 +1314,7 @@
         <v>24</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>11</v>
@@ -1334,7 +1334,7 @@
         <v>70</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>11</v>
@@ -1354,7 +1354,7 @@
         <v>22</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>11</v>
@@ -1374,7 +1374,7 @@
         <v>62</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>11</v>
@@ -1394,7 +1394,7 @@
         <v>21</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>11</v>
@@ -1414,7 +1414,7 @@
         <v>19</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>11</v>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KamanCore\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4B8FC8-6F32-4720-B692-141B5D76298F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954D3358-5BDA-40A1-A303-0BD1ED557A64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -814,7 +814,7 @@
         <v>37</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -834,7 +834,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
@@ -854,7 +854,7 @@
         <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>11</v>
@@ -874,7 +874,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>11</v>
@@ -894,7 +894,7 @@
         <v>68</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>11</v>
@@ -914,7 +914,7 @@
         <v>35</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>11</v>
@@ -934,7 +934,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>11</v>
@@ -954,7 +954,7 @@
         <v>29</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>11</v>
@@ -974,7 +974,7 @@
         <v>39</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>11</v>
@@ -994,7 +994,7 @@
         <v>41</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>11</v>
@@ -1014,7 +1014,7 @@
         <v>43</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>11</v>
@@ -1034,7 +1034,7 @@
         <v>45</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>11</v>
@@ -1054,7 +1054,7 @@
         <v>47</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>11</v>
@@ -1074,7 +1074,7 @@
         <v>49</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>11</v>
@@ -1094,7 +1094,7 @@
         <v>50</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>11</v>
@@ -1114,7 +1114,7 @@
         <v>50</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>11</v>
@@ -1134,7 +1134,7 @@
         <v>53</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>11</v>
@@ -1154,7 +1154,7 @@
         <v>58</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>11</v>
@@ -1174,7 +1174,7 @@
         <v>64</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>11</v>
@@ -1194,7 +1194,7 @@
         <v>66</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>11</v>
@@ -1214,7 +1214,7 @@
         <v>33</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>11</v>
@@ -1234,7 +1234,7 @@
         <v>60</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>11</v>
@@ -1254,7 +1254,7 @@
         <v>66</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>11</v>
@@ -1314,7 +1314,7 @@
         <v>24</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>11</v>
@@ -1334,7 +1334,7 @@
         <v>70</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>11</v>
@@ -1354,7 +1354,7 @@
         <v>22</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>11</v>
@@ -1374,7 +1374,7 @@
         <v>62</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>11</v>
@@ -1394,7 +1394,7 @@
         <v>21</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>11</v>
@@ -1414,7 +1414,7 @@
         <v>19</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>11</v>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KamanCore\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954D3358-5BDA-40A1-A303-0BD1ED557A64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E25C6F-924F-4E53-B7B2-0836FC3377A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="MasterExecutor" sheetId="10" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MasterExecutor!$A$1:$F$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MasterExecutor!$A$1:$F$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="70">
   <si>
     <t>Runmode</t>
   </si>
@@ -114,12 +114,6 @@
     <t>TC27_Verify_Store_room</t>
   </si>
   <si>
-    <t>TC25_Verify_product_comparison</t>
-  </si>
-  <si>
-    <t>User must be navigated to product comparison page</t>
-  </si>
-  <si>
     <t>TC09_Verify_Documented_Savings</t>
   </si>
   <si>
@@ -257,9 +251,6 @@
   </si>
   <si>
     <t>TC24_Verify_PlaceOrder_LoggedIn</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
@@ -745,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E33"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -808,10 +799,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>10</v>
@@ -888,10 +879,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>10</v>
@@ -908,10 +899,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>10</v>
@@ -928,10 +919,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>10</v>
@@ -948,10 +939,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>10</v>
@@ -968,10 +959,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>10</v>
@@ -988,10 +979,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>10</v>
@@ -1008,90 +999,90 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D15" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="30">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="E15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D16" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="E16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="30">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>50</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>10</v>
@@ -1108,10 +1099,10 @@
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>50</v>
+        <v>54</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>10</v>
@@ -1128,10 +1119,10 @@
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>10</v>
@@ -1148,10 +1139,10 @@
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>58</v>
+        <v>50</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>10</v>
@@ -1160,7 +1151,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="45">
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -1168,19 +1159,19 @@
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="F21" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="45">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -1188,15 +1179,15 @@
         <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1208,10 +1199,10 @@
         <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>33</v>
+        <v>63</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>10</v>
@@ -1228,10 +1219,10 @@
         <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>60</v>
+        <v>30</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>10</v>
@@ -1247,11 +1238,11 @@
       <c r="B25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>66</v>
+      <c r="C25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>10</v>
@@ -1267,14 +1258,14 @@
       <c r="B26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>27</v>
+      <c r="C26" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>11</v>
@@ -1288,13 +1279,13 @@
         <v>7</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>55</v>
+        <v>25</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>11</v>
@@ -1308,10 +1299,10 @@
         <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>24</v>
+        <v>67</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>10</v>
@@ -1328,10 +1319,10 @@
         <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>70</v>
+        <v>23</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>10</v>
@@ -1348,10 +1339,10 @@
         <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>22</v>
+        <v>59</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>10</v>
@@ -1368,10 +1359,10 @@
         <v>7</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>62</v>
+        <v>20</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>10</v>
@@ -1380,43 +1371,23 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="7" t="s">
+    <row r="32" spans="1:6" ht="45">
+      <c r="A32" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="45">
-      <c r="A33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="1" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KamanCore\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E25C6F-924F-4E53-B7B2-0836FC3377A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085C0F03-A026-428D-B3F5-ADCBDB4AFD3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="71">
   <si>
     <t>Runmode</t>
   </si>
@@ -251,6 +251,9 @@
   </si>
   <si>
     <t>TC24_Verify_PlaceOrder_LoggedIn</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -738,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -805,7 +808,7 @@
         <v>35</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -825,7 +828,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
@@ -845,7 +848,7 @@
         <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>11</v>
@@ -865,7 +868,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>11</v>
@@ -885,7 +888,7 @@
         <v>66</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>11</v>
@@ -905,7 +908,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>11</v>
@@ -925,7 +928,7 @@
         <v>29</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>11</v>
@@ -945,7 +948,7 @@
         <v>27</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>11</v>
@@ -965,7 +968,7 @@
         <v>37</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>11</v>
@@ -985,7 +988,7 @@
         <v>39</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>11</v>
@@ -1005,7 +1008,7 @@
         <v>41</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>11</v>
@@ -1025,7 +1028,7 @@
         <v>53</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>11</v>
@@ -1045,7 +1048,7 @@
         <v>43</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>11</v>
@@ -1065,7 +1068,7 @@
         <v>45</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>11</v>
@@ -1085,7 +1088,7 @@
         <v>47</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>11</v>
@@ -1105,7 +1108,7 @@
         <v>48</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>11</v>
@@ -1125,7 +1128,7 @@
         <v>48</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>11</v>
@@ -1145,7 +1148,7 @@
         <v>51</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>11</v>
@@ -1165,7 +1168,7 @@
         <v>56</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>11</v>
@@ -1185,7 +1188,7 @@
         <v>62</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>11</v>
@@ -1205,7 +1208,7 @@
         <v>64</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>11</v>
@@ -1225,7 +1228,7 @@
         <v>31</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>11</v>
@@ -1245,7 +1248,7 @@
         <v>58</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>11</v>
@@ -1265,7 +1268,7 @@
         <v>64</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>11</v>
@@ -1285,7 +1288,7 @@
         <v>24</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>11</v>
@@ -1305,7 +1308,7 @@
         <v>68</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>11</v>
@@ -1325,7 +1328,7 @@
         <v>22</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>11</v>
@@ -1345,7 +1348,7 @@
         <v>60</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>11</v>
@@ -1365,7 +1368,7 @@
         <v>21</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>11</v>
@@ -1385,7 +1388,7 @@
         <v>19</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>11</v>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KamanCore\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085C0F03-A026-428D-B3F5-ADCBDB4AFD3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287C1E13-3117-4345-AD2C-F5A47986A10C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="70">
   <si>
     <t>Runmode</t>
   </si>
@@ -251,9 +251,6 @@
   </si>
   <si>
     <t>TC24_Verify_PlaceOrder_LoggedIn</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
@@ -741,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -808,7 +805,7 @@
         <v>35</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -828,7 +825,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
@@ -848,7 +845,7 @@
         <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>11</v>
@@ -868,7 +865,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>11</v>
@@ -888,7 +885,7 @@
         <v>66</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>11</v>
@@ -908,7 +905,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>11</v>
@@ -928,7 +925,7 @@
         <v>29</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>11</v>
@@ -948,7 +945,7 @@
         <v>27</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>11</v>
@@ -968,7 +965,7 @@
         <v>37</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>11</v>
@@ -988,7 +985,7 @@
         <v>39</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>11</v>
@@ -1008,7 +1005,7 @@
         <v>41</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>11</v>
@@ -1028,7 +1025,7 @@
         <v>53</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>11</v>
@@ -1048,7 +1045,7 @@
         <v>43</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>11</v>
@@ -1068,7 +1065,7 @@
         <v>45</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>11</v>
@@ -1088,7 +1085,7 @@
         <v>47</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>11</v>
@@ -1108,7 +1105,7 @@
         <v>48</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>11</v>
@@ -1128,7 +1125,7 @@
         <v>48</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>11</v>
@@ -1148,7 +1145,7 @@
         <v>51</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>11</v>
@@ -1168,7 +1165,7 @@
         <v>56</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>11</v>
@@ -1188,7 +1185,7 @@
         <v>62</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>11</v>
@@ -1208,7 +1205,7 @@
         <v>64</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>11</v>
@@ -1228,7 +1225,7 @@
         <v>31</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>11</v>
@@ -1248,7 +1245,7 @@
         <v>58</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>11</v>
@@ -1268,7 +1265,7 @@
         <v>64</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>11</v>
@@ -1288,7 +1285,7 @@
         <v>24</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>11</v>
@@ -1308,7 +1305,7 @@
         <v>68</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>11</v>
@@ -1328,7 +1325,7 @@
         <v>22</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>11</v>
@@ -1348,7 +1345,7 @@
         <v>60</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>11</v>
@@ -1368,7 +1365,7 @@
         <v>21</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>11</v>
@@ -1388,7 +1385,7 @@
         <v>19</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>11</v>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KamanCore\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287C1E13-3117-4345-AD2C-F5A47986A10C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200D1272-35AE-4BDA-8278-A67D5CF81C67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="71">
   <si>
     <t>Runmode</t>
   </si>
@@ -251,6 +251,9 @@
   </si>
   <si>
     <t>TC24_Verify_PlaceOrder_LoggedIn</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -738,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -785,7 +788,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -805,7 +808,7 @@
         <v>35</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -825,7 +828,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
@@ -845,7 +848,7 @@
         <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>11</v>
@@ -865,7 +868,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>11</v>
@@ -885,7 +888,7 @@
         <v>66</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>11</v>
@@ -905,7 +908,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>11</v>
@@ -925,7 +928,7 @@
         <v>29</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>11</v>
@@ -945,7 +948,7 @@
         <v>27</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>11</v>
@@ -965,7 +968,7 @@
         <v>37</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>11</v>
@@ -985,7 +988,7 @@
         <v>39</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>11</v>
@@ -1005,7 +1008,7 @@
         <v>41</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>11</v>
@@ -1025,7 +1028,7 @@
         <v>53</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>11</v>
@@ -1045,7 +1048,7 @@
         <v>43</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>11</v>
@@ -1065,7 +1068,7 @@
         <v>45</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>11</v>
@@ -1085,7 +1088,7 @@
         <v>47</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>11</v>
@@ -1105,7 +1108,7 @@
         <v>48</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>11</v>
@@ -1125,7 +1128,7 @@
         <v>48</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>11</v>
@@ -1145,7 +1148,7 @@
         <v>51</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>11</v>
@@ -1165,7 +1168,7 @@
         <v>56</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>11</v>
@@ -1205,7 +1208,7 @@
         <v>64</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>11</v>
@@ -1225,7 +1228,7 @@
         <v>31</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>11</v>
@@ -1245,7 +1248,7 @@
         <v>58</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>11</v>
@@ -1265,7 +1268,7 @@
         <v>64</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>11</v>
@@ -1285,7 +1288,7 @@
         <v>24</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>11</v>
@@ -1305,7 +1308,7 @@
         <v>68</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>11</v>
@@ -1325,7 +1328,7 @@
         <v>22</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>11</v>
@@ -1345,7 +1348,7 @@
         <v>60</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>11</v>
@@ -1365,7 +1368,7 @@
         <v>21</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>11</v>
@@ -1385,7 +1388,7 @@
         <v>19</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>11</v>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KamanCore\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200D1272-35AE-4BDA-8278-A67D5CF81C67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F64BCE-6765-486F-8310-1B6C6E1B7AF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="70">
   <si>
     <t>Runmode</t>
   </si>
@@ -251,9 +251,6 @@
   </si>
   <si>
     <t>TC24_Verify_PlaceOrder_LoggedIn</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
@@ -358,7 +355,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -371,9 +368,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -741,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -788,7 +782,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -808,7 +802,7 @@
         <v>35</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -824,11 +818,11 @@
       <c r="C4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
@@ -848,7 +842,7 @@
         <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>11</v>
@@ -868,7 +862,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>11</v>
@@ -884,11 +878,11 @@
       <c r="C7" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>66</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>11</v>
@@ -904,11 +898,11 @@
       <c r="C8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>11</v>
@@ -928,7 +922,7 @@
         <v>29</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>11</v>
@@ -944,11 +938,11 @@
       <c r="C10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>11</v>
@@ -968,7 +962,7 @@
         <v>37</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>11</v>
@@ -984,11 +978,11 @@
       <c r="C12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>39</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>11</v>
@@ -1004,11 +998,11 @@
       <c r="C13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>11</v>
@@ -1024,11 +1018,11 @@
       <c r="C14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="13" t="s">
         <v>53</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>11</v>
@@ -1044,11 +1038,11 @@
       <c r="C15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>43</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>11</v>
@@ -1068,7 +1062,7 @@
         <v>45</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>11</v>
@@ -1084,11 +1078,11 @@
       <c r="C17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="10" t="s">
         <v>47</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>11</v>
@@ -1104,11 +1098,11 @@
       <c r="C18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>48</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>11</v>
@@ -1124,11 +1118,11 @@
       <c r="C19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>48</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>11</v>
@@ -1144,11 +1138,11 @@
       <c r="C20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="10" t="s">
         <v>51</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>11</v>
@@ -1164,11 +1158,11 @@
       <c r="C21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>56</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>11</v>
@@ -1184,7 +1178,7 @@
       <c r="C22" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="10" t="s">
         <v>62</v>
       </c>
       <c r="E22" s="5" t="s">
@@ -1204,11 +1198,11 @@
       <c r="C23" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="10" t="s">
         <v>64</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>11</v>
@@ -1228,7 +1222,7 @@
         <v>31</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>11</v>
@@ -1248,7 +1242,7 @@
         <v>58</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>11</v>
@@ -1264,11 +1258,11 @@
       <c r="C26" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="13" t="s">
         <v>64</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>11</v>
@@ -1284,11 +1278,11 @@
       <c r="C27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="10" t="s">
         <v>24</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>11</v>
@@ -1304,11 +1298,11 @@
       <c r="C28" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="11" t="s">
         <v>68</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>11</v>
@@ -1324,11 +1318,11 @@
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="10" t="s">
         <v>22</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>11</v>
@@ -1344,11 +1338,11 @@
       <c r="C30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="12" t="s">
         <v>60</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>11</v>
@@ -1364,11 +1358,11 @@
       <c r="C31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>11</v>
@@ -1384,11 +1378,11 @@
       <c r="C32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>11</v>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KamanCore\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F64BCE-6765-486F-8310-1B6C6E1B7AF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415226F2-A4AC-4E56-8087-467BFDDD905C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="71">
   <si>
     <t>Runmode</t>
   </si>
@@ -251,6 +251,9 @@
   </si>
   <si>
     <t>TC24_Verify_PlaceOrder_LoggedIn</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -735,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -802,7 +805,7 @@
         <v>35</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -822,7 +825,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
@@ -842,7 +845,7 @@
         <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>11</v>
@@ -862,7 +865,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>11</v>
@@ -882,7 +885,7 @@
         <v>66</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>11</v>
@@ -902,7 +905,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>11</v>
@@ -922,7 +925,7 @@
         <v>29</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>11</v>
@@ -942,7 +945,7 @@
         <v>27</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>11</v>
@@ -962,7 +965,7 @@
         <v>37</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>11</v>
@@ -982,7 +985,7 @@
         <v>39</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>11</v>
@@ -1002,7 +1005,7 @@
         <v>41</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>11</v>
@@ -1022,7 +1025,7 @@
         <v>53</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>11</v>
@@ -1042,7 +1045,7 @@
         <v>43</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>11</v>
@@ -1062,7 +1065,7 @@
         <v>45</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>11</v>
@@ -1082,7 +1085,7 @@
         <v>47</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>11</v>
@@ -1102,7 +1105,7 @@
         <v>48</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>11</v>
@@ -1122,7 +1125,7 @@
         <v>48</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>11</v>
@@ -1142,7 +1145,7 @@
         <v>51</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>11</v>
@@ -1162,7 +1165,7 @@
         <v>56</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>11</v>
@@ -1182,7 +1185,7 @@
         <v>62</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>11</v>
@@ -1202,7 +1205,7 @@
         <v>64</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>11</v>
@@ -1222,7 +1225,7 @@
         <v>31</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>11</v>
@@ -1242,7 +1245,7 @@
         <v>58</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>11</v>
@@ -1262,7 +1265,7 @@
         <v>64</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>11</v>
@@ -1282,7 +1285,7 @@
         <v>24</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>11</v>
@@ -1302,7 +1305,7 @@
         <v>68</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>11</v>
@@ -1322,7 +1325,7 @@
         <v>22</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>11</v>
@@ -1342,7 +1345,7 @@
         <v>60</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>11</v>
@@ -1362,7 +1365,7 @@
         <v>21</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>11</v>
@@ -1382,7 +1385,7 @@
         <v>19</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>11</v>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KamanCore\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415226F2-A4AC-4E56-8087-467BFDDD905C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658AD688-15BD-49AF-A4BC-8A2658E6F666}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -739,7 +739,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E32"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -805,7 +805,7 @@
         <v>35</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KamanCore\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658AD688-15BD-49AF-A4BC-8A2658E6F666}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35B94BD-9D47-4FD8-80A8-06E91279A26D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="70">
   <si>
     <t>Runmode</t>
   </si>
@@ -251,9 +251,6 @@
   </si>
   <si>
     <t>TC24_Verify_PlaceOrder_LoggedIn</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
@@ -739,7 +736,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E4" sqref="E4:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -825,7 +822,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
@@ -845,7 +842,7 @@
         <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>11</v>
@@ -865,7 +862,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>11</v>
@@ -885,7 +882,7 @@
         <v>66</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>11</v>
@@ -905,7 +902,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>11</v>
@@ -925,7 +922,7 @@
         <v>29</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>11</v>
@@ -945,7 +942,7 @@
         <v>27</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>11</v>
@@ -965,7 +962,7 @@
         <v>37</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>11</v>
@@ -985,7 +982,7 @@
         <v>39</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>11</v>
@@ -1005,7 +1002,7 @@
         <v>41</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>11</v>
@@ -1025,7 +1022,7 @@
         <v>53</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>11</v>
@@ -1045,7 +1042,7 @@
         <v>43</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>11</v>
@@ -1065,7 +1062,7 @@
         <v>45</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>11</v>
@@ -1085,7 +1082,7 @@
         <v>47</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>11</v>
@@ -1105,7 +1102,7 @@
         <v>48</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>11</v>
@@ -1125,7 +1122,7 @@
         <v>48</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>11</v>
@@ -1145,7 +1142,7 @@
         <v>51</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>11</v>
@@ -1165,7 +1162,7 @@
         <v>56</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>11</v>
@@ -1185,7 +1182,7 @@
         <v>62</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>11</v>
@@ -1205,7 +1202,7 @@
         <v>64</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>11</v>
@@ -1225,7 +1222,7 @@
         <v>31</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>11</v>
@@ -1241,11 +1238,11 @@
       <c r="C25" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="10" t="s">
         <v>58</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>11</v>
@@ -1265,7 +1262,7 @@
         <v>64</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>11</v>
@@ -1285,7 +1282,7 @@
         <v>24</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>11</v>
@@ -1298,14 +1295,14 @@
       <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="5" t="s">
         <v>67</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>68</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>11</v>
@@ -1325,7 +1322,7 @@
         <v>22</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>11</v>
@@ -1345,7 +1342,7 @@
         <v>60</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>11</v>
@@ -1365,7 +1362,7 @@
         <v>21</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>11</v>
@@ -1385,7 +1382,7 @@
         <v>19</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>11</v>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KamanCore\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35B94BD-9D47-4FD8-80A8-06E91279A26D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1B6873-09E3-44B8-AF83-EFBF5F83CDF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,16 @@
     <sheet name="MasterExecutor" sheetId="10" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MasterExecutor!$A$1:$F$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MasterExecutor!$A$1:$F$33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="73">
   <si>
     <t>Runmode</t>
   </si>
@@ -61,9 +63,6 @@
   </si>
   <si>
     <t>View store home</t>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
   <si>
     <t>High</t>
@@ -126,12 +125,6 @@
     <t>Should display products list</t>
   </si>
   <si>
-    <t>TC02_Verify_MYACC</t>
-  </si>
-  <si>
-    <t>Verify Myaccounts Section</t>
-  </si>
-  <si>
     <t>TC07_SearchCategory</t>
   </si>
   <si>
@@ -251,6 +244,24 @@
   </si>
   <si>
     <t>TC24_Verify_PlaceOrder_LoggedIn</t>
+  </si>
+  <si>
+    <t>TC02_Verify_MYACC_ManagedUser</t>
+  </si>
+  <si>
+    <t>TC02_Verify_MYACC_RegisteredUser</t>
+  </si>
+  <si>
+    <t>Verify Myaccounts Section for Managed User</t>
+  </si>
+  <si>
+    <t>Verify Myaccounts Section for Registered User</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -391,7 +402,138 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{A444948E-6AA8-45F3-AB40-38513383CF85}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -733,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E32"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -782,10 +924,10 @@
         <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -796,16 +938,16 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="45">
@@ -816,16 +958,16 @@
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>17</v>
-      </c>
       <c r="E4" s="5" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -836,16 +978,16 @@
         <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -856,16 +998,16 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="45">
@@ -876,16 +1018,16 @@
         <v>7</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -896,16 +1038,16 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -916,16 +1058,16 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="E9" s="5" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -936,16 +1078,16 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="E10" s="5" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -956,16 +1098,16 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -976,16 +1118,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30">
@@ -996,16 +1138,16 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1016,16 +1158,16 @@
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30">
@@ -1036,16 +1178,16 @@
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1056,16 +1198,16 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="30">
@@ -1076,16 +1218,16 @@
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1096,16 +1238,16 @@
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1116,16 +1258,16 @@
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1136,16 +1278,16 @@
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1156,16 +1298,16 @@
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="45">
@@ -1176,16 +1318,16 @@
         <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1196,16 +1338,16 @@
         <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>11</v>
+        <v>71</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1215,17 +1357,17 @@
       <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>30</v>
+      <c r="C24" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>11</v>
+        <v>71</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1235,17 +1377,17 @@
       <c r="B25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>58</v>
+      <c r="C25" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>11</v>
+        <v>71</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1255,37 +1397,37 @@
       <c r="B26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>64</v>
+      <c r="C26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>11</v>
+        <v>71</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>24</v>
+      <c r="C27" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>11</v>
+        <v>71</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1295,17 +1437,17 @@
       <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>68</v>
+      <c r="C28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>11</v>
+        <v>71</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1315,17 +1457,17 @@
       <c r="B29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>22</v>
+      <c r="C29" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>11</v>
+        <v>71</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1336,16 +1478,16 @@
         <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>60</v>
+        <v>22</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>11</v>
+        <v>71</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1356,39 +1498,98 @@
         <v>7</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="45">
-      <c r="A32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="E32" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="45">
+      <c r="A33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>11</v>
+      <c r="E33" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E2:E33">
+    <cfRule type="uniqueValues" dxfId="12" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E33">
+    <cfRule type="uniqueValues" dxfId="11" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="uniqueValues" dxfId="10" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="uniqueValues" dxfId="9" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="uniqueValues" dxfId="8" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="uniqueValues" dxfId="7" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22:F33 E2:E33">
+    <cfRule type="uniqueValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="uniqueValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="uniqueValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="uniqueValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KamanCore\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1B6873-09E3-44B8-AF83-EFBF5F83CDF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5875BD2F-6C6C-4CC5-8BCE-7E6A47C0FEEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MasterExecutor!$A$1:$F$33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="74">
   <si>
     <t>Runmode</t>
   </si>
@@ -246,9 +247,6 @@
     <t>TC24_Verify_PlaceOrder_LoggedIn</t>
   </si>
   <si>
-    <t>TC02_Verify_MYACC_ManagedUser</t>
-  </si>
-  <si>
     <t>TC02_Verify_MYACC_RegisteredUser</t>
   </si>
   <si>
@@ -262,6 +260,12 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>TC02_Verify_MYACC</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -877,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -924,7 +928,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
@@ -944,7 +948,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
@@ -964,7 +968,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>10</v>
@@ -984,7 +988,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>10</v>
@@ -1004,7 +1008,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>10</v>
@@ -1024,7 +1028,7 @@
         <v>63</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>10</v>
@@ -1044,7 +1048,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>10</v>
@@ -1064,7 +1068,7 @@
         <v>28</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>10</v>
@@ -1084,7 +1088,7 @@
         <v>26</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>10</v>
@@ -1104,7 +1108,7 @@
         <v>34</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>10</v>
@@ -1124,7 +1128,7 @@
         <v>36</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>10</v>
@@ -1144,7 +1148,7 @@
         <v>38</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>10</v>
@@ -1164,7 +1168,7 @@
         <v>50</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>10</v>
@@ -1184,7 +1188,7 @@
         <v>40</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>10</v>
@@ -1204,7 +1208,7 @@
         <v>42</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>10</v>
@@ -1224,7 +1228,7 @@
         <v>44</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>10</v>
@@ -1244,7 +1248,7 @@
         <v>45</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>10</v>
@@ -1264,7 +1268,7 @@
         <v>45</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>10</v>
@@ -1284,7 +1288,7 @@
         <v>48</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>10</v>
@@ -1304,7 +1308,7 @@
         <v>53</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>10</v>
@@ -1324,7 +1328,7 @@
         <v>59</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>10</v>
@@ -1344,7 +1348,7 @@
         <v>61</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>10</v>
@@ -1358,13 +1362,13 @@
         <v>7</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>10</v>
@@ -1378,10 +1382,10 @@
         <v>7</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>71</v>
@@ -1404,7 +1408,7 @@
         <v>55</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>10</v>
@@ -1424,7 +1428,7 @@
         <v>61</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>10</v>
@@ -1444,7 +1448,7 @@
         <v>23</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>10</v>
@@ -1464,7 +1468,7 @@
         <v>65</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>10</v>
@@ -1484,7 +1488,7 @@
         <v>21</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>10</v>
@@ -1504,7 +1508,7 @@
         <v>57</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>10</v>
@@ -1524,7 +1528,7 @@
         <v>20</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>10</v>
@@ -1544,7 +1548,7 @@
         <v>18</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>10</v>
@@ -1572,13 +1576,13 @@
   <conditionalFormatting sqref="E22:F33 E2:E33">
     <cfRule type="uniqueValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
+  <conditionalFormatting sqref="E2:E33">
     <cfRule type="uniqueValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
+  <conditionalFormatting sqref="E2:E33">
     <cfRule type="uniqueValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
+  <conditionalFormatting sqref="E2:E33">
     <cfRule type="uniqueValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KamanCore\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5875BD2F-6C6C-4CC5-8BCE-7E6A47C0FEEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EC4711-75E7-4E3B-82D6-52B5319E2A99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="73">
   <si>
     <t>Runmode</t>
   </si>
@@ -257,9 +257,6 @@
   </si>
   <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>TC02_Verify_MYACC</t>
@@ -406,7 +403,27 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{A444948E-6AA8-45F3-AB40-38513383CF85}"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -881,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -948,7 +965,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
@@ -1362,7 +1379,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>68</v>
@@ -1388,7 +1405,7 @@
         <v>69</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>10</v>
@@ -1556,42 +1573,45 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E33">
-    <cfRule type="uniqueValues" dxfId="12" priority="20"/>
+    <cfRule type="uniqueValues" dxfId="4" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E33">
-    <cfRule type="uniqueValues" dxfId="11" priority="19"/>
+    <cfRule type="uniqueValues" dxfId="14" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="uniqueValues" dxfId="10" priority="15"/>
+    <cfRule type="uniqueValues" dxfId="13" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="uniqueValues" dxfId="9" priority="10"/>
+    <cfRule type="uniqueValues" dxfId="12" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="uniqueValues" dxfId="8" priority="9"/>
+    <cfRule type="uniqueValues" dxfId="11" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="uniqueValues" dxfId="7" priority="8"/>
+    <cfRule type="uniqueValues" dxfId="10" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:F33 E2:E33">
-    <cfRule type="uniqueValues" dxfId="6" priority="7"/>
+    <cfRule type="uniqueValues" dxfId="2" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E33">
-    <cfRule type="uniqueValues" dxfId="5" priority="6"/>
+    <cfRule type="uniqueValues" dxfId="1" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E33">
-    <cfRule type="uniqueValues" dxfId="4" priority="5"/>
+    <cfRule type="uniqueValues" dxfId="9" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E33">
-    <cfRule type="uniqueValues" dxfId="3" priority="4"/>
+    <cfRule type="uniqueValues" dxfId="8" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="2" priority="3"/>
+    <cfRule type="uniqueValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="1" priority="2"/>
+    <cfRule type="uniqueValues" dxfId="6" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
+    <cfRule type="uniqueValues" dxfId="5" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
     <cfRule type="uniqueValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KamanCore\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EC4711-75E7-4E3B-82D6-52B5319E2A99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C718FE-B746-4E7C-B87C-399F75542454}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -898,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -945,7 +945,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
@@ -985,7 +985,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>10</v>
@@ -1005,7 +1005,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>10</v>
@@ -1025,7 +1025,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>10</v>
@@ -1045,7 +1045,7 @@
         <v>63</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>10</v>
@@ -1065,7 +1065,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>10</v>
@@ -1085,7 +1085,7 @@
         <v>28</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>10</v>
@@ -1105,7 +1105,7 @@
         <v>26</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>10</v>
@@ -1125,7 +1125,7 @@
         <v>34</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>10</v>
@@ -1145,7 +1145,7 @@
         <v>36</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>10</v>
@@ -1165,7 +1165,7 @@
         <v>38</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>10</v>
@@ -1185,7 +1185,7 @@
         <v>50</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>10</v>
@@ -1205,7 +1205,7 @@
         <v>40</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>10</v>
@@ -1225,7 +1225,7 @@
         <v>42</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>10</v>
@@ -1245,7 +1245,7 @@
         <v>44</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>10</v>
@@ -1265,7 +1265,7 @@
         <v>45</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>10</v>
@@ -1285,7 +1285,7 @@
         <v>45</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>10</v>
@@ -1305,7 +1305,7 @@
         <v>48</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>10</v>
@@ -1325,7 +1325,7 @@
         <v>53</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>10</v>
@@ -1345,7 +1345,7 @@
         <v>59</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>10</v>
@@ -1365,7 +1365,7 @@
         <v>61</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>10</v>
@@ -1385,7 +1385,7 @@
         <v>68</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>10</v>
@@ -1425,7 +1425,7 @@
         <v>55</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>10</v>
@@ -1445,7 +1445,7 @@
         <v>61</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>10</v>
@@ -1465,7 +1465,7 @@
         <v>23</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>10</v>
@@ -1485,7 +1485,7 @@
         <v>65</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>10</v>
@@ -1505,7 +1505,7 @@
         <v>21</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>10</v>
@@ -1525,7 +1525,7 @@
         <v>57</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>10</v>
@@ -1545,7 +1545,7 @@
         <v>20</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>10</v>
@@ -1565,7 +1565,7 @@
         <v>18</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>10</v>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KamanCore\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C718FE-B746-4E7C-B87C-399F75542454}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36513B26-AA65-4C06-9E5D-3B368F729AA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -259,10 +259,10 @@
     <t>Yes</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>TC02_Verify_MYACC</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -403,7 +403,27 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{A444948E-6AA8-45F3-AB40-38513383CF85}"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -898,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -945,7 +965,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
@@ -965,7 +985,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
@@ -985,7 +1005,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>10</v>
@@ -1005,7 +1025,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>10</v>
@@ -1025,7 +1045,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>10</v>
@@ -1045,7 +1065,7 @@
         <v>63</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>10</v>
@@ -1065,7 +1085,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>10</v>
@@ -1085,7 +1105,7 @@
         <v>28</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>10</v>
@@ -1105,7 +1125,7 @@
         <v>26</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>10</v>
@@ -1125,7 +1145,7 @@
         <v>34</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>10</v>
@@ -1145,7 +1165,7 @@
         <v>36</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>10</v>
@@ -1165,7 +1185,7 @@
         <v>38</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>10</v>
@@ -1185,7 +1205,7 @@
         <v>50</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>10</v>
@@ -1205,7 +1225,7 @@
         <v>40</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>10</v>
@@ -1225,7 +1245,7 @@
         <v>42</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>10</v>
@@ -1245,7 +1265,7 @@
         <v>44</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>10</v>
@@ -1265,7 +1285,7 @@
         <v>45</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>10</v>
@@ -1285,7 +1305,7 @@
         <v>45</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>10</v>
@@ -1305,7 +1325,7 @@
         <v>48</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>10</v>
@@ -1325,7 +1345,7 @@
         <v>53</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>10</v>
@@ -1345,7 +1365,7 @@
         <v>59</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>10</v>
@@ -1365,7 +1385,7 @@
         <v>61</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>10</v>
@@ -1379,13 +1399,13 @@
         <v>7</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>68</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>10</v>
@@ -1405,7 +1425,7 @@
         <v>69</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>10</v>
@@ -1425,7 +1445,7 @@
         <v>55</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>10</v>
@@ -1445,7 +1465,7 @@
         <v>61</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>10</v>
@@ -1465,7 +1485,7 @@
         <v>23</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>10</v>
@@ -1485,7 +1505,7 @@
         <v>65</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>10</v>
@@ -1505,7 +1525,7 @@
         <v>21</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>10</v>
@@ -1525,7 +1545,7 @@
         <v>57</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>10</v>
@@ -1545,7 +1565,7 @@
         <v>20</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>10</v>
@@ -1565,7 +1585,7 @@
         <v>18</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>10</v>
@@ -1573,45 +1593,51 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E33">
-    <cfRule type="uniqueValues" dxfId="4" priority="21"/>
+    <cfRule type="uniqueValues" dxfId="6" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E33">
-    <cfRule type="uniqueValues" dxfId="14" priority="20"/>
+    <cfRule type="uniqueValues" dxfId="16" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="uniqueValues" dxfId="13" priority="16"/>
+    <cfRule type="uniqueValues" dxfId="15" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
+    <cfRule type="uniqueValues" dxfId="14" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="uniqueValues" dxfId="13" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
     <cfRule type="uniqueValues" dxfId="12" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="uniqueValues" dxfId="11" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
-    <cfRule type="uniqueValues" dxfId="10" priority="9"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E22:F33 E2:E33">
-    <cfRule type="uniqueValues" dxfId="2" priority="8"/>
+    <cfRule type="uniqueValues" dxfId="4" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E33">
-    <cfRule type="uniqueValues" dxfId="1" priority="7"/>
+    <cfRule type="uniqueValues" dxfId="3" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E33">
+    <cfRule type="uniqueValues" dxfId="11" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E33">
+    <cfRule type="uniqueValues" dxfId="10" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
     <cfRule type="uniqueValues" dxfId="9" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E33">
+  <conditionalFormatting sqref="E4">
     <cfRule type="uniqueValues" dxfId="8" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
     <cfRule type="uniqueValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="6" priority="3"/>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="uniqueValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="5" priority="2"/>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="uniqueValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
+  <conditionalFormatting sqref="E24">
     <cfRule type="uniqueValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KamanCore\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36513B26-AA65-4C06-9E5D-3B368F729AA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21A6C84-6281-4E73-813C-71C6C67B5776}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -259,10 +259,10 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>TC02_Verify_MYACC</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -918,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -965,7 +965,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
@@ -985,7 +985,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
@@ -1005,7 +1005,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>10</v>
@@ -1025,7 +1025,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>10</v>
@@ -1045,7 +1045,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>10</v>
@@ -1065,7 +1065,7 @@
         <v>63</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>10</v>
@@ -1085,7 +1085,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>10</v>
@@ -1105,7 +1105,7 @@
         <v>28</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>10</v>
@@ -1125,7 +1125,7 @@
         <v>26</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>10</v>
@@ -1145,7 +1145,7 @@
         <v>34</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>10</v>
@@ -1165,7 +1165,7 @@
         <v>36</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>10</v>
@@ -1185,7 +1185,7 @@
         <v>38</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>10</v>
@@ -1205,7 +1205,7 @@
         <v>50</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>10</v>
@@ -1225,7 +1225,7 @@
         <v>40</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>10</v>
@@ -1245,7 +1245,7 @@
         <v>42</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>10</v>
@@ -1265,7 +1265,7 @@
         <v>44</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>10</v>
@@ -1285,7 +1285,7 @@
         <v>45</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>10</v>
@@ -1305,7 +1305,7 @@
         <v>45</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>10</v>
@@ -1325,7 +1325,7 @@
         <v>48</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>10</v>
@@ -1345,7 +1345,7 @@
         <v>53</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>10</v>
@@ -1365,7 +1365,7 @@
         <v>59</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>10</v>
@@ -1385,7 +1385,7 @@
         <v>61</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>10</v>
@@ -1399,7 +1399,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>68</v>
@@ -1425,7 +1425,7 @@
         <v>69</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>10</v>
@@ -1445,7 +1445,7 @@
         <v>55</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>10</v>
@@ -1465,7 +1465,7 @@
         <v>61</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>10</v>
@@ -1485,7 +1485,7 @@
         <v>23</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>10</v>
@@ -1505,7 +1505,7 @@
         <v>65</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>10</v>
@@ -1525,7 +1525,7 @@
         <v>21</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>10</v>
@@ -1545,7 +1545,7 @@
         <v>57</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>10</v>
@@ -1565,7 +1565,7 @@
         <v>20</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>10</v>
@@ -1585,7 +1585,7 @@
         <v>18</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>10</v>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KamanCore\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21A6C84-6281-4E73-813C-71C6C67B5776}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D108F9FD-356A-4B34-9E56-0B9E9A1B5CD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -918,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -965,7 +965,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
@@ -1005,7 +1005,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>10</v>
@@ -1025,7 +1025,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>10</v>
@@ -1045,7 +1045,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>10</v>
@@ -1065,7 +1065,7 @@
         <v>63</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>10</v>
@@ -1085,7 +1085,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>10</v>
@@ -1105,7 +1105,7 @@
         <v>28</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>10</v>
@@ -1125,7 +1125,7 @@
         <v>26</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>10</v>
@@ -1145,7 +1145,7 @@
         <v>34</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>10</v>
@@ -1165,7 +1165,7 @@
         <v>36</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>10</v>
@@ -1185,7 +1185,7 @@
         <v>38</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>10</v>
@@ -1205,7 +1205,7 @@
         <v>50</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>10</v>
@@ -1225,7 +1225,7 @@
         <v>40</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>10</v>
@@ -1245,7 +1245,7 @@
         <v>42</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>10</v>
@@ -1265,7 +1265,7 @@
         <v>44</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>10</v>
@@ -1285,7 +1285,7 @@
         <v>45</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>10</v>
@@ -1305,7 +1305,7 @@
         <v>45</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>10</v>
@@ -1325,7 +1325,7 @@
         <v>48</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>10</v>
@@ -1345,7 +1345,7 @@
         <v>53</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>10</v>
@@ -1365,7 +1365,7 @@
         <v>59</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>10</v>
@@ -1385,7 +1385,7 @@
         <v>61</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>10</v>
@@ -1445,7 +1445,7 @@
         <v>55</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>10</v>
@@ -1465,7 +1465,7 @@
         <v>61</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>10</v>
@@ -1485,7 +1485,7 @@
         <v>23</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>10</v>
@@ -1505,7 +1505,7 @@
         <v>65</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>10</v>
@@ -1525,7 +1525,7 @@
         <v>21</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>10</v>
@@ -1545,7 +1545,7 @@
         <v>57</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>10</v>
@@ -1565,7 +1565,7 @@
         <v>20</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>10</v>
@@ -1585,7 +1585,7 @@
         <v>18</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>10</v>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KamanCore\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D108F9FD-356A-4B34-9E56-0B9E9A1B5CD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62694E06-1C99-4FA4-B066-A478AB14BEE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="74">
   <si>
     <t>Runmode</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t>TC02_Verify_MYACC</t>
@@ -918,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -985,7 +988,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
@@ -1399,7 +1402,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>68</v>
@@ -1445,7 +1448,7 @@
         <v>55</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>10</v>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KamanCore\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62694E06-1C99-4FA4-B066-A478AB14BEE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDCB7B1-D266-48CA-BDD9-697A584067F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MasterExecutor!$A$1:$F$33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="73">
   <si>
     <t>Runmode</t>
   </si>
@@ -257,9 +256,6 @@
   </si>
   <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>TC02_Verify_MYACC</t>
@@ -406,7 +402,17 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{A444948E-6AA8-45F3-AB40-38513383CF85}"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -921,8 +927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -988,7 +994,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
@@ -1181,7 +1187,7 @@
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="10" t="s">
@@ -1402,7 +1408,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>68</v>
@@ -1448,7 +1454,7 @@
         <v>55</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>10</v>
@@ -1481,7 +1487,7 @@
       <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D28" s="10" t="s">
@@ -1596,51 +1602,57 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E33">
-    <cfRule type="uniqueValues" dxfId="6" priority="23"/>
+    <cfRule type="uniqueValues" dxfId="4" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E33">
-    <cfRule type="uniqueValues" dxfId="16" priority="22"/>
+    <cfRule type="uniqueValues" dxfId="17" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="uniqueValues" dxfId="15" priority="18"/>
+    <cfRule type="uniqueValues" dxfId="16" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="uniqueValues" dxfId="14" priority="13"/>
+    <cfRule type="uniqueValues" dxfId="15" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="uniqueValues" dxfId="13" priority="12"/>
+    <cfRule type="uniqueValues" dxfId="14" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="uniqueValues" dxfId="12" priority="11"/>
+    <cfRule type="uniqueValues" dxfId="13" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:F33 E2:E33">
-    <cfRule type="uniqueValues" dxfId="4" priority="10"/>
+    <cfRule type="uniqueValues" dxfId="3" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E33">
-    <cfRule type="uniqueValues" dxfId="3" priority="9"/>
+    <cfRule type="uniqueValues" dxfId="2" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E33">
-    <cfRule type="uniqueValues" dxfId="11" priority="8"/>
+    <cfRule type="uniqueValues" dxfId="12" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E33">
-    <cfRule type="uniqueValues" dxfId="10" priority="7"/>
+    <cfRule type="uniqueValues" dxfId="11" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="9" priority="6"/>
+    <cfRule type="uniqueValues" dxfId="10" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="8" priority="5"/>
+    <cfRule type="uniqueValues" dxfId="9" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="7" priority="4"/>
+    <cfRule type="uniqueValues" dxfId="8" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="uniqueValues" dxfId="2" priority="3"/>
+    <cfRule type="uniqueValues" dxfId="7" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
+    <cfRule type="uniqueValues" dxfId="6" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="uniqueValues" dxfId="5" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
     <cfRule type="uniqueValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
+  <conditionalFormatting sqref="E26">
     <cfRule type="uniqueValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KamanCore\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDCB7B1-D266-48CA-BDD9-697A584067F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2693DD3C-169A-4423-AD7A-EAB808469090}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="74">
   <si>
     <t>Runmode</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t>TC02_Verify_MYACC</t>
@@ -927,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -994,7 +997,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
@@ -1408,7 +1411,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>68</v>
@@ -1454,7 +1457,7 @@
         <v>55</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>10</v>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KamanCore\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2693DD3C-169A-4423-AD7A-EAB808469090}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3825DDAE-7268-414A-B6F9-9C89DFE70F46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="MasterExecutor" sheetId="10" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MasterExecutor!$A$1:$F$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MasterExecutor!$A$1:$F$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="68">
   <si>
     <t>Runmode</t>
   </si>
@@ -131,12 +131,6 @@
     <t>User should be directed to category page</t>
   </si>
   <si>
-    <t>TC02_Verify_HOME_PDP_PLP_CATEGORY</t>
-  </si>
-  <si>
-    <t>Verify home page, PDP, PLP, search results, cart ,Category - Basic checks</t>
-  </si>
-  <si>
     <t>TC10_Verify_Search_results</t>
   </si>
   <si>
@@ -201,12 +195,6 @@
   </si>
   <si>
     <t>Shipping method page should display</t>
-  </si>
-  <si>
-    <t>TC23_Verify_UserRegistration</t>
-  </si>
-  <si>
-    <t>User should be registered and logged in</t>
   </si>
   <si>
     <t>TC30_Search_Typeahead</t>
@@ -258,13 +246,7 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>TC02_Verify_MYACC</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -405,77 +387,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{A444948E-6AA8-45F3-AB40-38513383CF85}"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -928,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -977,33 +889,33 @@
         <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="45">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>32</v>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="45">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1011,13 +923,13 @@
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>10</v>
@@ -1030,54 +942,54 @@
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>13</v>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="45">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>12</v>
+      <c r="C6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="45">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>62</v>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>10</v>
@@ -1091,13 +1003,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>10</v>
@@ -1111,13 +1023,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>10</v>
@@ -1131,13 +1043,13 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>10</v>
@@ -1153,77 +1065,77 @@
       <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" ht="30">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>36</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>50</v>
-      </c>
       <c r="E14" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30">
+        <v>66</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -1233,17 +1145,17 @@
       <c r="C15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>66</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -1253,17 +1165,17 @@
       <c r="C16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="10" t="s">
         <v>42</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -1271,13 +1183,13 @@
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>44</v>
-      </c>
       <c r="E17" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>10</v>
@@ -1291,13 +1203,13 @@
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>10</v>
@@ -1311,13 +1223,13 @@
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="E19" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>10</v>
@@ -1331,19 +1243,19 @@
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="45">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -1351,19 +1263,19 @@
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="45">
+        <v>66</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -1371,13 +1283,13 @@
         <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>10</v>
@@ -1390,14 +1302,14 @@
       <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>61</v>
+      <c r="C23" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>10</v>
@@ -1411,13 +1323,13 @@
         <v>7</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>10</v>
@@ -1431,53 +1343,53 @@
         <v>7</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>69</v>
+        <v>62</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>54</v>
+      <c r="C26" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>61</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>10</v>
@@ -1490,14 +1402,14 @@
       <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>24</v>
+      <c r="C28" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>10</v>
@@ -1510,14 +1422,14 @@
       <c r="B29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>65</v>
+      <c r="C29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>10</v>
@@ -1531,132 +1443,71 @@
         <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="7" t="s">
+    <row r="31" spans="1:6" ht="45">
+      <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>57</v>
+        <v>17</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="45">
-      <c r="A33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E33">
-    <cfRule type="uniqueValues" dxfId="4" priority="25"/>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="uniqueValues" dxfId="10" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E33">
-    <cfRule type="uniqueValues" dxfId="17" priority="24"/>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="uniqueValues" dxfId="9" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="uniqueValues" dxfId="16" priority="20"/>
+    <cfRule type="uniqueValues" dxfId="8" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="uniqueValues" dxfId="15" priority="15"/>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="uniqueValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="uniqueValues" dxfId="14" priority="14"/>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="uniqueValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
-    <cfRule type="uniqueValues" dxfId="13" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22:F33 E2:E33">
-    <cfRule type="uniqueValues" dxfId="3" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E33">
-    <cfRule type="uniqueValues" dxfId="2" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E33">
-    <cfRule type="uniqueValues" dxfId="12" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E33">
-    <cfRule type="uniqueValues" dxfId="11" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="10" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="9" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="uniqueValues" dxfId="8" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
-    <cfRule type="uniqueValues" dxfId="7" priority="5"/>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="uniqueValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="uniqueValues" dxfId="6" priority="4"/>
+    <cfRule type="uniqueValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="uniqueValues" dxfId="5" priority="3"/>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="uniqueValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="uniqueValues" dxfId="1" priority="2"/>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="uniqueValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="uniqueValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="E21:F31 E2:E31">
+    <cfRule type="uniqueValues" dxfId="1" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E31">
+    <cfRule type="uniqueValues" dxfId="0" priority="31"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KamanCore\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3825DDAE-7268-414A-B6F9-9C89DFE70F46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429DF798-4C8A-46C5-85F0-BB70497ED460}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="70">
   <si>
     <t>Runmode</t>
   </si>
@@ -247,6 +247,13 @@
   </si>
   <si>
     <t>TC02_Verify_MYACC</t>
+  </si>
+  <si>
+    <t>1. more than 10 Items should be added to cart
+2. Appropriate inventory message must be displayed</t>
+  </si>
+  <si>
+    <t>TC39_Add_MultipleItems_to_cart</t>
   </si>
 </sst>
 </file>
@@ -387,7 +394,27 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{A444948E-6AA8-45F3-AB40-38513383CF85}"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -840,10 +867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1475,39 +1502,65 @@
         <v>10</v>
       </c>
     </row>
+    <row r="32" spans="1:6" ht="30">
+      <c r="A32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E23">
-    <cfRule type="uniqueValues" dxfId="10" priority="20"/>
+    <cfRule type="uniqueValues" dxfId="12" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="uniqueValues" dxfId="9" priority="15"/>
+    <cfRule type="uniqueValues" dxfId="11" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="uniqueValues" dxfId="8" priority="13"/>
+    <cfRule type="uniqueValues" dxfId="10" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="uniqueValues" dxfId="9" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="uniqueValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
     <cfRule type="uniqueValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
+  <conditionalFormatting sqref="E24">
     <cfRule type="uniqueValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
+  <conditionalFormatting sqref="E23">
     <cfRule type="uniqueValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
+  <conditionalFormatting sqref="E23">
     <cfRule type="uniqueValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="uniqueValues" dxfId="3" priority="4"/>
+  <conditionalFormatting sqref="E21:F31 E2:E32">
+    <cfRule type="uniqueValues" dxfId="3" priority="29"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="uniqueValues" dxfId="2" priority="3"/>
+  <conditionalFormatting sqref="E2:E32">
+    <cfRule type="uniqueValues" dxfId="2" priority="33"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21:F31 E2:E31">
-    <cfRule type="uniqueValues" dxfId="1" priority="27"/>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="uniqueValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E31">
-    <cfRule type="uniqueValues" dxfId="0" priority="31"/>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="uniqueValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
